--- a/relatorios/repasses_liberados/dentistas/08030325444/2023-08-25_relatorio_repasses_08030325444.xlsx
+++ b/relatorios/repasses_liberados/dentistas/08030325444/2023-08-25_relatorio_repasses_08030325444.xlsx
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N18">
-        <v>9.949999999999999</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N29">
-        <v>1.605</v>
+        <v>2.675</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N38">
-        <v>2.675</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N39">
-        <v>9.949999999999999</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3052,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N50">
-        <v>0.08500000000000001</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5296,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5956,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8376,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N171">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N176">
-        <v>1.545</v>
+        <v>2.575</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8640,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N177">
-        <v>5.748</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -11324,10 +11324,10 @@
         <v>0.897321</v>
       </c>
       <c r="M238">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N238">
-        <v>108.2169126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11368,10 +11368,10 @@
         <v>0.102679</v>
       </c>
       <c r="M239">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N239">
-        <v>65</v>
+        <v>1.4169702</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N250">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/08030325444/2023-08-25_relatorio_repasses_08030325444.xlsx
+++ b/relatorios/repasses_liberados/dentistas/08030325444/2023-08-25_relatorio_repasses_08030325444.xlsx
@@ -1820,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>75.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1952,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N25">
-        <v>42.12</v>
+        <v>25.272</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N26">
-        <v>0.051</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2040,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>49.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.5</v>
+        <v>65</v>
       </c>
       <c r="N28">
-        <v>0.08500000000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N29">
-        <v>2.675</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2260,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N32">
-        <v>75.31</v>
+        <v>45.186</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>2.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2348,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N34">
-        <v>9.949999999999999</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N36">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N37">
-        <v>123.545</v>
+        <v>24.709</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N38">
-        <v>2.14</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N39">
-        <v>7.96</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2612,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N40">
-        <v>52.02</v>
+        <v>31.212</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2656,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N41">
-        <v>123.545</v>
+        <v>74.127</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2700,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N42">
-        <v>2.675</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N43">
-        <v>75.31</v>
+        <v>45.186</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2788,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N44">
-        <v>2.675</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N45">
-        <v>75.31</v>
+        <v>60.248</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2920,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N47">
-        <v>0.08500000000000001</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.5</v>
+        <v>65</v>
       </c>
       <c r="N49">
-        <v>35.765</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N51">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N53">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N56">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3448,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N59">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N60">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3580,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N62">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3668,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N64">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5296,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N101">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5516,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5560,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5956,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N116">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N180">
-        <v>119.42</v>
+        <v>95.536</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8816,10 +8816,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
-        <v>2.575</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N182">
-        <v>9.58</v>
+        <v>7.664000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9036,10 +9036,10 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
-        <v>48.345</v>
+        <v>29.007</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9080,10 +9080,10 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
-        <v>2.575</v>
+        <v>1.545</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9388,10 +9388,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9432,10 +9432,10 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N195">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N198">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -9696,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -9828,10 +9828,10 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N204">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -11324,10 +11324,10 @@
         <v>0.897321</v>
       </c>
       <c r="M238">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
-        <v>65</v>
+        <v>108.2169126</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N251">
         <v>0</v>
